--- a/biology/Mycologie/Acibenzolar-S-méthyl/Acibenzolar-S-méthyl.xlsx
+++ b/biology/Mycologie/Acibenzolar-S-méthyl/Acibenzolar-S-méthyl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acibenzolar-S-m%C3%A9thyl</t>
+          <t>Acibenzolar-S-méthyl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acibenzolar-S-méthyl  est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide. Analogue de l’acide salicylique, il appartient à la famille chimique des benzothiadiazoles (BTH). Il s"agit du premier produit développé dans les années 1980 et revendiquant un mode d’action de type stimulateur des défenses naturelles des plantes, plus connu sous le nom de BTH et commercialisé par Syngenta aux États-Unis[3].
+L'acibenzolar-S-méthyl  est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide. Analogue de l’acide salicylique, il appartient à la famille chimique des benzothiadiazoles (BTH). Il s"agit du premier produit développé dans les années 1980 et revendiquant un mode d’action de type stimulateur des défenses naturelles des plantes, plus connu sous le nom de BTH et commercialisé par Syngenta aux États-Unis.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acibenzolar-S-m%C3%A9thyl</t>
+          <t>Acibenzolar-S-méthyl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est inscrite à l’annexe I de la directive 91/414/CEE par la directive 2001/87/CE.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acibenzolar-S-m%C3%A9thyl</t>
+          <t>Acibenzolar-S-méthyl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 Hydrolyse à pH 7 : très stable,
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acibenzolar-S-m%C3%A9thyl</t>
+          <t>Acibenzolar-S-méthyl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 0,4 mg·L-1,
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acibenzolar-S-m%C3%A9thyl</t>
+          <t>Acibenzolar-S-méthyl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la toxicité pour l’Homme, la dose journalière acceptable (DJA) est de l’ordre de : 0,05 mg·kg-1·j-1.
 </t>
